--- a/data/2026-02-02/fitness_data_20260206_120954.xlsx
+++ b/data/2026-02-02/fitness_data_20260206_120954.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Walkathon\fitness-challenge\data\2026-02-02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D41D71-1E37-455D-B65A-2F7FE9D3A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-156" yWindow="0" windowWidth="13260" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="261">
   <si>
     <t>folder_name</t>
   </si>
@@ -803,8 +809,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,13 +873,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -911,7 +925,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -945,6 +959,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -979,9 +994,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1154,14 +1170,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
+      <selection activeCell="H172" sqref="H172"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="38.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1231,7 @@
         <v>183</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10579</v>
       </c>
       <c r="E2">
         <v>613</v>
@@ -1219,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1275,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1274,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +1312,7 @@
         <v>184</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4247</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1300,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1338,7 @@
         <v>185</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>16645</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1322,14 +1349,11 @@
       <c r="G6">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>249</v>
-      </c>
       <c r="I6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1364,7 @@
         <v>185</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="E7">
         <v>66</v>
@@ -1358,7 +1382,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>185</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3105</v>
       </c>
       <c r="E8">
         <v>143</v>
@@ -1387,7 +1411,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1422,7 @@
         <v>186</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10430</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1416,7 +1440,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1451,7 @@
         <v>187</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>20016</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1442,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1477,7 @@
         <v>187</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>20016</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1468,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1521,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1532,7 @@
         <v>188</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>11613</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1523,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1558,7 @@
         <v>189</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4654</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1552,7 +1576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1563,7 +1587,7 @@
         <v>190</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>11236</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1578,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1613,7 @@
         <v>191</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>16097</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1604,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1657,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>192</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>6127</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1659,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1714,7 +1738,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1749,7 @@
         <v>193</v>
       </c>
       <c r="D21">
-        <v>20000</v>
+        <v>1318</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1736,14 +1760,11 @@
       <c r="G21">
         <v>88</v>
       </c>
-      <c r="H21" t="s">
-        <v>249</v>
-      </c>
       <c r="I21">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G23">
         <v>31</v>
@@ -1801,7 +1822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +1877,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1906,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1896,7 +1917,7 @@
         <v>195</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>6953</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1911,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +1969,7 @@
         <v>196</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6484</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1963,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1974,7 +1995,7 @@
         <v>197</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>20647</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1989,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2018,7 +2039,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2050,7 @@
         <v>198</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>8421</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2044,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2102,7 +2123,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2131,7 +2152,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2163,7 @@
         <v>199</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>13359</v>
       </c>
       <c r="E36">
         <v>450</v>
@@ -2157,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2174,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>3.8353</v>
+        <v>3.8353000000000002</v>
       </c>
       <c r="G37">
         <v>31.9</v>
@@ -2186,7 +2207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2197,7 +2218,7 @@
         <v>199</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>17537</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2212,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3.8353</v>
+        <v>3.8353000000000002</v>
       </c>
       <c r="G39">
         <v>31.9</v>
@@ -2241,7 +2262,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2252,7 +2273,7 @@
         <v>199</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>17537</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2267,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2293,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2319,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2345,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2371,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2397,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2423,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2434,7 +2455,7 @@
         <v>200</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2449,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2460,7 +2481,7 @@
         <v>201</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>12111</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2475,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2492,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -2504,7 +2525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2533,7 +2554,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2594,7 @@
         <v>203</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>11176</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2588,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2599,7 +2620,7 @@
         <v>204</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>5329</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2614,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2625,7 +2646,7 @@
         <v>204</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>5329</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2640,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +2690,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2706,7 +2727,7 @@
         <v>205</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>20269</v>
       </c>
       <c r="E57">
         <v>505</v>
@@ -2721,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2750,7 +2771,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2779,7 +2800,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +2811,7 @@
         <v>206</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>11159</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2805,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2834,7 +2855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2863,7 +2884,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2874,7 +2895,7 @@
         <v>207</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>8565</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2889,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +2939,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2947,7 +2968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2973,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2999,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3036,7 +3057,7 @@
         <v>208</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>19654</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3051,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3080,7 +3101,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3091,7 +3112,7 @@
         <v>209</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>16342</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3106,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3117,7 +3138,7 @@
         <v>210</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>20171</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3135,7 +3156,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3164,7 +3185,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3175,7 +3196,7 @@
         <v>211</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>12355</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3190,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3219,7 +3240,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3230,7 +3251,7 @@
         <v>213</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>8851</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3245,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3274,7 +3295,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3285,7 +3306,7 @@
         <v>214</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2344</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3303,7 +3324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3332,7 +3353,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3343,7 +3364,7 @@
         <v>215</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>16010</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3358,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3381,13 +3402,13 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I81">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3416,7 +3437,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3427,7 +3448,7 @@
         <v>216</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>12820</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3445,7 +3466,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3474,7 +3495,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3503,7 +3524,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3514,7 +3535,7 @@
         <v>217</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="E86">
         <v>67</v>
@@ -3525,14 +3546,11 @@
       <c r="G86">
         <v>360</v>
       </c>
-      <c r="H86" t="s">
-        <v>249</v>
-      </c>
       <c r="I86">
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3590,7 +3608,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3619,7 +3637,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3648,7 +3666,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3659,7 +3677,7 @@
         <v>218</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>7735</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3674,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3732,7 +3750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3743,7 +3761,7 @@
         <v>219</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>10970</v>
       </c>
       <c r="E94">
         <v>2106</v>
@@ -3758,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3787,7 +3805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3798,7 +3816,7 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>12337</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3813,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3824,7 +3842,7 @@
         <v>220</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>12337</v>
       </c>
       <c r="E97">
         <v>1300</v>
@@ -3839,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3850,7 +3868,7 @@
         <v>220</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>12621</v>
       </c>
       <c r="E98">
         <v>300</v>
@@ -3865,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3876,7 +3894,7 @@
         <v>220</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>12621</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3891,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3902,7 +3920,7 @@
         <v>221</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>14563</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3917,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3946,7 +3964,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3975,7 +3993,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -4004,7 +4022,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4051,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -4044,7 +4062,7 @@
         <v>221</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>20023</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4059,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4088,7 +4106,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4117,7 +4135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4146,7 +4164,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4175,7 +4193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4186,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>11743</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4201,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4223,11 +4241,14 @@
       <c r="G111">
         <v>30</v>
       </c>
+      <c r="H111" t="s">
+        <v>249</v>
+      </c>
       <c r="I111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -4238,7 +4259,7 @@
         <v>224</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>9534</v>
       </c>
       <c r="E112">
         <v>1760</v>
@@ -4253,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -4282,7 +4303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -4293,7 +4314,7 @@
         <v>226</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>9202</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4308,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -4319,7 +4340,7 @@
         <v>226</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>10899</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4334,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4363,7 +4384,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4385,11 +4406,14 @@
       <c r="G117">
         <v>32</v>
       </c>
+      <c r="H117" t="s">
+        <v>248</v>
+      </c>
       <c r="I117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -4400,7 +4424,7 @@
         <v>228</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>6733</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -4415,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4426,7 +4450,7 @@
         <v>228</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>5101</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4441,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4452,7 +4476,7 @@
         <v>228</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>5692</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4467,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4478,7 +4502,7 @@
         <v>228</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4493,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4504,7 +4528,7 @@
         <v>228</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>5096</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4519,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4530,7 +4554,7 @@
         <v>229</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>9272</v>
       </c>
       <c r="E123">
         <v>367</v>
@@ -4545,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4574,7 +4598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -4585,7 +4609,7 @@
         <v>230</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>13968</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4603,7 +4627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4632,7 +4656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -4643,7 +4667,7 @@
         <v>231</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4661,7 +4685,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4683,11 +4707,14 @@
       <c r="G128">
         <v>42</v>
       </c>
+      <c r="H128" t="s">
+        <v>248</v>
+      </c>
       <c r="I128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4743,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -4745,7 +4772,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -4756,7 +4783,7 @@
         <v>234</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>10515</v>
       </c>
       <c r="E131">
         <v>1758</v>
@@ -4771,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -4782,13 +4809,13 @@
         <v>234</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="E132">
         <v>1761</v>
       </c>
       <c r="F132">
-        <v>8.210000000000001</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="G132">
         <v>90</v>
@@ -4800,7 +4827,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -4829,7 +4856,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -4858,7 +4885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -4887,7 +4914,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -4898,7 +4925,7 @@
         <v>236</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>20060</v>
       </c>
       <c r="E136">
         <v>679</v>
@@ -4913,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -4942,7 +4969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -4953,7 +4980,7 @@
         <v>237</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>5578</v>
       </c>
       <c r="E138">
         <v>1589</v>
@@ -4968,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -4979,7 +5006,7 @@
         <v>237</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>5578</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4990,11 +5017,14 @@
       <c r="G139">
         <v>0</v>
       </c>
+      <c r="H139" t="s">
+        <v>249</v>
+      </c>
       <c r="I139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -5005,7 +5035,7 @@
         <v>238</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>9804</v>
       </c>
       <c r="E140">
         <v>1916</v>
@@ -5020,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -5031,7 +5061,7 @@
         <v>238</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>15947</v>
       </c>
       <c r="E141">
         <v>2395</v>
@@ -5046,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5057,7 +5087,7 @@
         <v>238</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>15329</v>
       </c>
       <c r="E142">
         <v>2603</v>
@@ -5075,7 +5105,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -5086,7 +5116,7 @@
         <v>238</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>16412</v>
       </c>
       <c r="E143">
         <v>2476</v>
@@ -5104,7 +5134,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -5115,7 +5145,7 @@
         <v>238</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>15953</v>
       </c>
       <c r="E144">
         <v>2159</v>
@@ -5133,7 +5163,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -5144,7 +5174,7 @@
         <v>238</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>14187</v>
       </c>
       <c r="E145">
         <v>2257</v>
@@ -5162,7 +5192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -5173,7 +5203,7 @@
         <v>238</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>16533</v>
       </c>
       <c r="E146">
         <v>2206</v>
@@ -5188,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5199,7 +5229,7 @@
         <v>238</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>17786</v>
       </c>
       <c r="E147">
         <v>2366</v>
@@ -5214,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -5243,7 +5273,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -5254,7 +5284,7 @@
         <v>239</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>16434</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5269,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5286,7 +5316,7 @@
         <v>115</v>
       </c>
       <c r="F150">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G150">
         <v>32</v>
@@ -5298,7 +5328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -5327,7 +5357,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -5356,7 +5386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -5385,7 +5415,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -5396,7 +5426,7 @@
         <v>239</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>15442</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -5411,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -5440,7 +5470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -5469,7 +5499,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -5498,7 +5528,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -5520,11 +5550,14 @@
       <c r="G158">
         <v>36</v>
       </c>
+      <c r="H158" t="s">
+        <v>249</v>
+      </c>
       <c r="I158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -5550,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -5561,7 +5594,7 @@
         <v>241</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>10216</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -5576,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -5587,7 +5620,7 @@
         <v>242</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>14061</v>
       </c>
       <c r="E161">
         <v>4017</v>
@@ -5598,14 +5631,11 @@
       <c r="G161">
         <v>120</v>
       </c>
-      <c r="H161" t="s">
-        <v>249</v>
-      </c>
       <c r="I161">
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -5627,11 +5657,14 @@
       <c r="G162">
         <v>18</v>
       </c>
+      <c r="H162" t="s">
+        <v>249</v>
+      </c>
       <c r="I162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -5660,7 +5693,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -5671,7 +5704,7 @@
         <v>243</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>3835</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -5689,7 +5722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -5700,7 +5733,7 @@
         <v>243</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>12449</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -5715,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -5726,7 +5759,7 @@
         <v>243</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>15033</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5741,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -5770,7 +5803,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -5781,7 +5814,7 @@
         <v>244</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>10376</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5796,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -5807,7 +5840,7 @@
         <v>245</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>8357</v>
       </c>
       <c r="E169">
         <v>136</v>
@@ -5822,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -5845,13 +5878,13 @@
         <v>126</v>
       </c>
       <c r="H170" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I170">
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -5880,7 +5913,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -5909,7 +5942,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -5944,14 +5977,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5977,7 +6010,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>220</v>
       </c>
@@ -6000,7 +6033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>183</v>
       </c>
@@ -6026,7 +6059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -6049,7 +6082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -6075,7 +6108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -6101,7 +6134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -6127,7 +6160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -6150,7 +6183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -6176,7 +6209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -6199,7 +6232,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -6222,7 +6255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>192</v>
       </c>
@@ -6248,7 +6281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -6274,7 +6307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -6285,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E14">
         <v>31</v>
@@ -6300,7 +6333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -6326,7 +6359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>196</v>
       </c>
@@ -6349,7 +6382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -6375,7 +6408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -6401,7 +6434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -6412,7 +6445,7 @@
         <v>450</v>
       </c>
       <c r="D19">
-        <v>95.50060000000001</v>
+        <v>95.500600000000006</v>
       </c>
       <c r="E19">
         <v>94.8</v>
@@ -6427,7 +6460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -6450,7 +6483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -6461,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -6476,7 +6509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -6502,7 +6535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -6525,7 +6558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -6551,7 +6584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -6577,7 +6610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -6600,7 +6633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>207</v>
       </c>
@@ -6626,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -6652,7 +6685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -6678,7 +6711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>210</v>
       </c>
@@ -6704,7 +6737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -6727,7 +6760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>212</v>
       </c>
@@ -6753,7 +6786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -6779,7 +6812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>214</v>
       </c>
@@ -6805,7 +6838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>215</v>
       </c>
@@ -6831,7 +6864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>216</v>
       </c>
@@ -6857,7 +6890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>217</v>
       </c>
@@ -6883,7 +6916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -6909,7 +6942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -6935,7 +6968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>221</v>
       </c>
@@ -6961,7 +6994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -6972,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -6984,7 +7017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>223</v>
       </c>
@@ -7007,7 +7040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>224</v>
       </c>
@@ -7030,7 +7063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>225</v>
       </c>
@@ -7056,7 +7089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -7082,7 +7115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>227</v>
       </c>
@@ -7105,7 +7138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -7128,7 +7161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>229</v>
       </c>
@@ -7154,7 +7187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>230</v>
       </c>
@@ -7180,7 +7213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>231</v>
       </c>
@@ -7206,7 +7239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>232</v>
       </c>
@@ -7229,7 +7262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -7255,7 +7288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>234</v>
       </c>
@@ -7266,7 +7299,7 @@
         <v>3519</v>
       </c>
       <c r="D53">
-        <v>16.31</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="E53">
         <v>231</v>
@@ -7281,7 +7314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -7307,7 +7340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>236</v>
       </c>
@@ -7333,7 +7366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -7356,7 +7389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>238</v>
       </c>
@@ -7382,7 +7415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -7408,7 +7441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -7434,7 +7467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>241</v>
       </c>
@@ -7457,7 +7490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>242</v>
       </c>
@@ -7483,7 +7516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>243</v>
       </c>
@@ -7509,7 +7542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -7532,7 +7565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>245</v>
       </c>
@@ -7558,7 +7591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -7584,7 +7617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>247</v>
       </c>
